--- a/ECB_skewness.xlsx
+++ b/ECB_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>0.47890686988830566</v>
       </c>
       <c r="C5" s="2">
-        <v>0.38373130559921265</v>
+        <v>0.37906733155250549</v>
       </c>
       <c r="D5" s="2">
         <v>0.60682821273803711</v>
       </c>
       <c r="E5" s="2">
-        <v>0.56780970096588135</v>
+        <v>0.56416690349578857</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>0.5860331654548645</v>
       </c>
       <c r="C6" s="2">
-        <v>0.53760290145874023</v>
+        <v>0.53272092342376709</v>
       </c>
       <c r="D6" s="2">
         <v>0.58285558223724365</v>
       </c>
       <c r="E6" s="2">
-        <v>0.53389376401901245</v>
+        <v>0.53074795007705689</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>0.80940514802932739</v>
       </c>
       <c r="C7" s="2">
-        <v>0.74870556592941284</v>
+        <v>0.74363505840301514</v>
       </c>
       <c r="D7" s="2">
         <v>0.62259155511856079</v>
       </c>
       <c r="E7" s="2">
-        <v>0.57039523124694824</v>
+        <v>0.56734466552734375</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>0.43972894549369812</v>
       </c>
       <c r="C8" s="2">
-        <v>0.41583207249641418</v>
+        <v>0.41532653570175171</v>
       </c>
       <c r="D8" s="2">
         <v>0.59996819496154785</v>
       </c>
       <c r="E8" s="2">
-        <v>0.54560506343841553</v>
+        <v>0.54246294498443604</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>0.72006678581237793</v>
       </c>
       <c r="C9" s="2">
-        <v>0.75317668914794922</v>
+        <v>0.7500845193862915</v>
       </c>
       <c r="D9" s="2">
         <v>0.6180424690246582</v>
       </c>
       <c r="E9" s="2">
-        <v>0.56880438327789307</v>
+        <v>0.56531548500061035</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>0.46299266815185547</v>
       </c>
       <c r="C10" s="2">
-        <v>0.36431407928466797</v>
+        <v>0.36365339159965515</v>
       </c>
       <c r="D10" s="2">
-        <v>0.62297284603118896</v>
+        <v>0.62297284603118897</v>
       </c>
       <c r="E10" s="2">
-        <v>0.5774921178817749</v>
+        <v>0.57391875982284546</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>0.86100733280181885</v>
       </c>
       <c r="C11" s="2">
-        <v>0.78940385580062866</v>
+        <v>0.78692507743835449</v>
       </c>
       <c r="D11" s="2">
         <v>0.63974106311798096</v>
       </c>
       <c r="E11" s="2">
-        <v>0.60055983066558838</v>
+        <v>0.59736788272857666</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>0.44160452485084534</v>
       </c>
       <c r="C12" s="2">
-        <v>0.37207400798797607</v>
+        <v>0.36829060316085816</v>
       </c>
       <c r="D12" s="2">
         <v>0.57559704780578613</v>
       </c>
       <c r="E12" s="2">
-        <v>0.53873556852340698</v>
+        <v>0.53562140464782715</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>0.76263660192489624</v>
       </c>
       <c r="C13" s="2">
-        <v>0.75439900159835815</v>
+        <v>0.74813568592071533</v>
       </c>
       <c r="D13" s="2">
         <v>0.54548430442810059</v>
       </c>
       <c r="E13" s="2">
-        <v>0.51946228742599487</v>
+        <v>0.51517897844314575</v>
       </c>
     </row>
     <row r="14">
@@ -283,16 +283,16 @@
         <v>44197</v>
       </c>
       <c r="B14" s="2">
-        <v>0.52328032255172729</v>
+        <v>0.5232803225517273</v>
       </c>
       <c r="C14" s="2">
-        <v>0.46192103624343872</v>
+        <v>0.45649725198745728</v>
       </c>
       <c r="D14" s="2">
         <v>0.46770617365837097</v>
       </c>
       <c r="E14" s="2">
-        <v>0.43383356928825378</v>
+        <v>0.42935198545455933</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>0.73694723844528198</v>
       </c>
       <c r="C15" s="2">
-        <v>0.74521243572235107</v>
+        <v>0.7437630295753479</v>
       </c>
       <c r="D15" s="2">
         <v>0.52602195739746094</v>
       </c>
       <c r="E15" s="2">
-        <v>0.50203424692153931</v>
+        <v>0.49726396799087525</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>0.23210926353931427</v>
       </c>
       <c r="C16" s="2">
-        <v>0.19228687882423401</v>
+        <v>0.18791666626930237</v>
       </c>
       <c r="D16" s="2">
         <v>0.52616488933563232</v>
       </c>
       <c r="E16" s="2">
-        <v>0.50524026155471802</v>
+        <v>0.50029581785202026</v>
       </c>
     </row>
     <row r="17">
@@ -334,16 +334,16 @@
         <v>44287</v>
       </c>
       <c r="B17" s="2">
-        <v>0.168714240193367</v>
+        <v>0.16871424019336701</v>
       </c>
       <c r="C17" s="2">
-        <v>0.24237246811389923</v>
+        <v>0.2313445657491684</v>
       </c>
       <c r="D17" s="2">
         <v>0.56414449214935303</v>
       </c>
       <c r="E17" s="2">
-        <v>0.54401141405105591</v>
+        <v>0.53895175457000732</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>0.020063307136297226</v>
       </c>
       <c r="C18" s="2">
-        <v>-0.017481729388237</v>
+        <v>-0.022358322516083717</v>
       </c>
       <c r="D18" s="2">
         <v>0.54223060607910156</v>
       </c>
       <c r="E18" s="2">
-        <v>0.51805341243743896</v>
+        <v>0.51327890157699585</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>0.98783475160598755</v>
       </c>
       <c r="C19" s="2">
-        <v>0.97812044620513916</v>
+        <v>0.9748612642288208</v>
       </c>
       <c r="D19" s="2">
         <v>0.58736658096313477</v>
       </c>
       <c r="E19" s="2">
-        <v>0.56938022375106812</v>
+        <v>0.56457775831222534</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>0.86229372024536133</v>
       </c>
       <c r="C20" s="2">
-        <v>0.81825757026672363</v>
+        <v>0.81421184539794922</v>
       </c>
       <c r="D20" s="2">
         <v>0.58975428342819214</v>
       </c>
       <c r="E20" s="2">
-        <v>0.5684971809387207</v>
+        <v>0.56323939561843872</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>0.7834208607673645</v>
       </c>
       <c r="C21" s="2">
-        <v>0.72101444005966187</v>
+        <v>0.7161940336227417</v>
       </c>
       <c r="D21" s="2">
         <v>0.62779784202575684</v>
       </c>
       <c r="E21" s="2">
-        <v>0.60329097509384155</v>
+        <v>0.59857022762298584</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>0.56541162729263306</v>
       </c>
       <c r="C22" s="2">
-        <v>0.52077722549438477</v>
+        <v>0.51707959175109863</v>
       </c>
       <c r="D22" s="2">
         <v>0.67616474628448486</v>
       </c>
       <c r="E22" s="2">
-        <v>0.64159274101257324</v>
+        <v>0.63746285438537598</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>0.92950445413589478</v>
       </c>
       <c r="C23" s="2">
-        <v>0.9238625168800354</v>
+        <v>0.91818708181381226</v>
       </c>
       <c r="D23" s="2">
         <v>0.7726747989654541</v>
       </c>
       <c r="E23" s="2">
-        <v>0.74180358648300171</v>
+        <v>0.73780030012130737</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>0.75843614339828491</v>
       </c>
       <c r="C24" s="2">
-        <v>0.73726469278335571</v>
+        <v>0.73171776533126831</v>
       </c>
       <c r="D24" s="2">
         <v>0.72733175754547119</v>
       </c>
       <c r="E24" s="2">
-        <v>0.69358193874359131</v>
+        <v>0.68936187028884888</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>0.5745013952255249</v>
       </c>
       <c r="C25" s="2">
-        <v>0.50543129444122314</v>
+        <v>0.50589442253112793</v>
       </c>
       <c r="D25" s="2">
         <v>0.64191234111785889</v>
       </c>
       <c r="E25" s="2">
-        <v>0.59720355272293091</v>
+        <v>0.59241414070129395</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>0.60401636362075806</v>
       </c>
       <c r="C26" s="2">
-        <v>0.58708822727203369</v>
+        <v>0.58137810230255127</v>
       </c>
       <c r="D26" s="2">
         <v>0.54834198951721191</v>
       </c>
       <c r="E26" s="2">
-        <v>0.49012854695320129</v>
+        <v>0.48578634858131409</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>0.88865375518798828</v>
       </c>
       <c r="C27" s="2">
-        <v>0.88441598415374756</v>
+        <v>0.88067877292633057</v>
       </c>
       <c r="D27" s="2">
         <v>0.52398020029067993</v>
       </c>
       <c r="E27" s="2">
-        <v>0.45769283175468445</v>
+        <v>0.4533897340297699</v>
       </c>
     </row>
     <row r="28">
@@ -521,16 +521,16 @@
         <v>44621</v>
       </c>
       <c r="B28" s="2">
-        <v>0.57974767684936523</v>
+        <v>0.57974767684936524</v>
       </c>
       <c r="C28" s="2">
-        <v>0.54412567615509033</v>
+        <v>0.53891509771347046</v>
       </c>
       <c r="D28" s="2">
         <v>0.44605356454849243</v>
       </c>
       <c r="E28" s="2">
-        <v>0.37229230999946594</v>
+        <v>0.36825156211853027</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>0.093518778681755066</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.049148179590702057</v>
+        <v>-0.058317739516496658</v>
       </c>
       <c r="D29" s="2">
         <v>0.34521672129631042</v>
       </c>
       <c r="E29" s="2">
-        <v>0.25903084874153137</v>
+        <v>0.25567460060119629</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>-0.058712445199489594</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.24266046285629272</v>
+        <v>-0.2434559166431427</v>
       </c>
       <c r="D30" s="2">
         <v>0.27751493453979492</v>
       </c>
       <c r="E30" s="2">
-        <v>0.18765762448310852</v>
+        <v>0.18439604341983795</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>0.34615576267242432</v>
       </c>
       <c r="C31" s="2">
-        <v>0.22885560989379883</v>
+        <v>0.22551010549068451</v>
       </c>
       <c r="D31" s="2">
         <v>0.21286661922931671</v>
       </c>
       <c r="E31" s="2">
-        <v>0.12076102197170258</v>
+        <v>0.1182025820016861</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>0.22816456854343414</v>
       </c>
       <c r="C32" s="2">
-        <v>0.15525782108306885</v>
+        <v>0.15194332599639893</v>
       </c>
       <c r="D32" s="2">
         <v>0.11221088469028473</v>
       </c>
       <c r="E32" s="2">
-        <v>0.010362070985138416</v>
+        <v>0.0078709013760089874</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>-0.14909525215625763</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.28208833932876587</v>
+        <v>-0.28147482872009277</v>
       </c>
       <c r="D33" s="2">
         <v>0.029440870508551598</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.076181992888450623</v>
+        <v>-0.078322947025299072</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>-0.034814868122339249</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.13692766427993774</v>
+        <v>-0.13561248779296875</v>
       </c>
       <c r="D34" s="2">
         <v>0.03338068351149559</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.071556143462657928</v>
+        <v>-0.07264341413974762</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>0.022181600332260132</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.014981231652200222</v>
+        <v>-0.014363073743879795</v>
       </c>
       <c r="D35" s="2">
         <v>0.025342671200633049</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.085596837103366852</v>
+        <v>-0.086148738861083984</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>-0.017247855663299561</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.10917459428310394</v>
+        <v>-0.1123063713312149</v>
       </c>
       <c r="D36" s="2">
         <v>-0.023631807416677475</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.13476285338401794</v>
+        <v>-0.13486069440841675</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>-0.1651824563741684</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.23477092385292053</v>
+        <v>-0.23682953417301178</v>
       </c>
       <c r="D37" s="2">
         <v>-0.041741345077753067</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.16945739090442657</v>
+        <v>-0.16874536871910095</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>0.12897710502147675</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.0075155044905841351</v>
+        <v>-0.0072019658982753754</v>
       </c>
       <c r="D38" s="2">
         <v>-0.0066232206299901009</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.14783638715744019</v>
+        <v>-0.14634765684604645</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>-0.13105456531047821</v>
       </c>
       <c r="C39" s="2">
-        <v>-0.36902672052383423</v>
+        <v>-0.3650037944316864</v>
       </c>
       <c r="D39" s="2">
         <v>0.0067126024514436722</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.14206312596797943</v>
+        <v>-0.1402575820684433</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>-0.09461454302072525</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.2136385440826416</v>
+        <v>-0.21289747953414917</v>
       </c>
       <c r="D40" s="2">
         <v>0.03950674831867218</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.13001549243927002</v>
+        <v>-0.12753874063491821</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>0.065178714692592621</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.15699298679828644</v>
+        <v>-0.1530187726020813</v>
       </c>
       <c r="D41" s="2">
         <v>0.076159395277500153</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.10000284016132355</v>
+        <v>-0.097104594111442566</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>0.16696788370609283</v>
       </c>
       <c r="C42" s="2">
-        <v>-0.087499253451824188</v>
+        <v>-0.079895377159118652</v>
       </c>
       <c r="D42" s="2">
         <v>0.13985089957714081</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.041630122810602188</v>
+        <v>-0.03818829357624054</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>0.085207536816596985</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.084968432784080505</v>
+        <v>-0.080801911652088165</v>
       </c>
       <c r="D43" s="2">
         <v>0.17068886756896973</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.0083893053233623505</v>
+        <v>-0.0044802767224609852</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>0.31732892990112305</v>
       </c>
       <c r="C44" s="2">
-        <v>0.09344751387834549</v>
+        <v>0.10010658204555511</v>
       </c>
       <c r="D44" s="2">
         <v>0.23953601717948914</v>
       </c>
       <c r="E44" s="2">
-        <v>0.067812077701091766</v>
+        <v>0.071921356022357941</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>0.3126259446144104</v>
       </c>
       <c r="C45" s="2">
-        <v>0.16093930602073669</v>
+        <v>0.16160093247890473</v>
       </c>
       <c r="D45" s="2">
         <v>0.32293534278869629</v>
       </c>
       <c r="E45" s="2">
-        <v>0.15081010758876801</v>
+        <v>0.15509694814682007</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>0.40804114937782288</v>
       </c>
       <c r="C46" s="2">
-        <v>0.29058352112770081</v>
+        <v>0.29341715574264526</v>
       </c>
       <c r="D46" s="2">
-        <v>0.35515490174293518</v>
+        <v>0.37612941861152649</v>
       </c>
       <c r="E46" s="2">
-        <v>0.18928548693656921</v>
+        <v>0.21357093751430512</v>
       </c>
     </row>
     <row r="47">
@@ -844,16 +844,16 @@
         <v>45200</v>
       </c>
       <c r="B47" s="2">
-        <v>0.40651878714561462</v>
+        <v>0.40651878714561463</v>
       </c>
       <c r="C47" s="2">
-        <v>0.29165184497833252</v>
+        <v>0.29617017507553101</v>
       </c>
       <c r="D47" s="2">
-        <v>0.38203877210617065</v>
+        <v>0.42497488856315613</v>
       </c>
       <c r="E47" s="2">
-        <v>0.22882616519927979</v>
+        <v>0.27132821083068848</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>0.48856979608535767</v>
       </c>
       <c r="C48" s="2">
-        <v>0.31678572297096252</v>
+        <v>0.32261091470718384</v>
       </c>
       <c r="D48" s="2">
-        <v>0.43151065707206726</v>
+        <v>0.47562271356582642</v>
       </c>
       <c r="E48" s="2">
-        <v>0.2811252772808075</v>
+        <v>0.3105008602142334</v>
       </c>
     </row>
     <row r="49">
@@ -881,23 +881,65 @@
         <v>0.65597927570343018</v>
       </c>
       <c r="C49" s="2">
-        <v>0.53334373235702515</v>
+        <v>0.53568285703659058</v>
       </c>
       <c r="D49" s="2">
-        <v>0.45434698462486267</v>
+        <v>0.49540942907333374</v>
       </c>
       <c r="E49" s="2">
-        <v>0.31866082549095154</v>
+        <v>0.33680015802383423</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>45292</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="B50" s="2">
+        <v>0.54392540454864502</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.37324714660644531</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.52152138948440552</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.36182859539985657</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.60657721757888794</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.43992006778717041</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.54043471813201904</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.37323051691055298</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.54103797674179077</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.27175191044807434</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.56721794605255127</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.3886425793170929</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_skewness.xlsx
+++ b/ECB_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>0.47890686988830566</v>
       </c>
       <c r="C5" s="2">
-        <v>0.37906733155250549</v>
+        <v>0.3787035346031189</v>
       </c>
       <c r="D5" s="2">
         <v>0.60682821273803711</v>
       </c>
       <c r="E5" s="2">
-        <v>0.56416690349578857</v>
+        <v>0.56307190656661987</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>0.5860331654548645</v>
       </c>
       <c r="C6" s="2">
-        <v>0.53272092342376709</v>
+        <v>0.53289341926574707</v>
       </c>
       <c r="D6" s="2">
         <v>0.58285558223724365</v>
       </c>
       <c r="E6" s="2">
-        <v>0.53074795007705689</v>
+        <v>0.52979743480682373</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>0.80940514802932739</v>
       </c>
       <c r="C7" s="2">
-        <v>0.74363505840301514</v>
+        <v>0.74452793598175049</v>
       </c>
       <c r="D7" s="2">
         <v>0.62259155511856079</v>
       </c>
       <c r="E7" s="2">
-        <v>0.56734466552734375</v>
+        <v>0.566497802734375</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>0.43972894549369812</v>
       </c>
       <c r="C8" s="2">
-        <v>0.41532653570175171</v>
+        <v>0.41637325286865234</v>
       </c>
       <c r="D8" s="2">
         <v>0.59996819496154785</v>
       </c>
       <c r="E8" s="2">
-        <v>0.54246294498443604</v>
+        <v>0.54199022054672241</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>0.72006678581237793</v>
       </c>
       <c r="C9" s="2">
-        <v>0.7500845193862915</v>
+        <v>0.74286133050918579</v>
       </c>
       <c r="D9" s="2">
         <v>0.6180424690246582</v>
       </c>
       <c r="E9" s="2">
-        <v>0.56531548500061035</v>
+        <v>0.56467735767364502</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>0.46299266815185547</v>
       </c>
       <c r="C10" s="2">
-        <v>0.36365339159965515</v>
+        <v>0.36342513561248779</v>
       </c>
       <c r="D10" s="2">
         <v>0.62297284603118897</v>
       </c>
       <c r="E10" s="2">
-        <v>0.57391875982284546</v>
+        <v>0.57295989990234375</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>0.86100733280181885</v>
       </c>
       <c r="C11" s="2">
-        <v>0.78692507743835449</v>
+        <v>0.78670006990432739</v>
       </c>
       <c r="D11" s="2">
         <v>0.63974106311798096</v>
       </c>
       <c r="E11" s="2">
-        <v>0.59736788272857666</v>
+        <v>0.5960620641708374</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>0.44160452485084534</v>
       </c>
       <c r="C12" s="2">
-        <v>0.36829060316085816</v>
+        <v>0.37043699622154236</v>
       </c>
       <c r="D12" s="2">
         <v>0.57559704780578613</v>
       </c>
       <c r="E12" s="2">
-        <v>0.53562140464782715</v>
+        <v>0.53451281785964966</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>0.76263660192489624</v>
       </c>
       <c r="C13" s="2">
-        <v>0.74813568592071533</v>
+        <v>0.74617481231689453</v>
       </c>
       <c r="D13" s="2">
         <v>0.54548430442810059</v>
       </c>
       <c r="E13" s="2">
-        <v>0.51517897844314575</v>
+        <v>0.5137982964515686</v>
       </c>
     </row>
     <row r="14">
@@ -286,13 +286,13 @@
         <v>0.5232803225517273</v>
       </c>
       <c r="C14" s="2">
-        <v>0.45649725198745728</v>
+        <v>0.45324599742889404</v>
       </c>
       <c r="D14" s="2">
         <v>0.46770617365837097</v>
       </c>
       <c r="E14" s="2">
-        <v>0.42935198545455933</v>
+        <v>0.42912170290946961</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>0.73694723844528198</v>
       </c>
       <c r="C15" s="2">
-        <v>0.7437630295753479</v>
+        <v>0.74081331491470337</v>
       </c>
       <c r="D15" s="2">
         <v>0.52602195739746094</v>
       </c>
       <c r="E15" s="2">
-        <v>0.49726396799087525</v>
+        <v>0.49694010615348816</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>0.23210926353931427</v>
       </c>
       <c r="C16" s="2">
-        <v>0.18791666626930237</v>
+        <v>0.1905844509601593</v>
       </c>
       <c r="D16" s="2">
         <v>0.52616488933563232</v>
       </c>
       <c r="E16" s="2">
-        <v>0.50029581785202026</v>
+        <v>0.49972608685493469</v>
       </c>
     </row>
     <row r="17">
@@ -337,13 +337,13 @@
         <v>0.16871424019336701</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2313445657491684</v>
+        <v>0.22994279861450195</v>
       </c>
       <c r="D17" s="2">
         <v>0.56414449214935303</v>
       </c>
       <c r="E17" s="2">
-        <v>0.53895175457000732</v>
+        <v>0.5379374623298645</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>0.020063307136297226</v>
       </c>
       <c r="C18" s="2">
-        <v>-0.022358322516083717</v>
+        <v>-0.019228357821702957</v>
       </c>
       <c r="D18" s="2">
         <v>0.54223060607910156</v>
       </c>
       <c r="E18" s="2">
-        <v>0.51327890157699585</v>
+        <v>0.51205646991729736</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>0.98783475160598755</v>
       </c>
       <c r="C19" s="2">
-        <v>0.9748612642288208</v>
+        <v>0.97379088401794434</v>
       </c>
       <c r="D19" s="2">
         <v>0.58736658096313477</v>
       </c>
       <c r="E19" s="2">
-        <v>0.56457775831222534</v>
+        <v>0.56336361169815064</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>0.86229372024536133</v>
       </c>
       <c r="C20" s="2">
-        <v>0.81421184539794922</v>
+        <v>0.81177389621734619</v>
       </c>
       <c r="D20" s="2">
         <v>0.58975428342819214</v>
       </c>
       <c r="E20" s="2">
-        <v>0.56323939561843872</v>
+        <v>0.56209886074066162</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>0.7834208607673645</v>
       </c>
       <c r="C21" s="2">
-        <v>0.7161940336227417</v>
+        <v>0.71433955430984497</v>
       </c>
       <c r="D21" s="2">
         <v>0.62779784202575684</v>
       </c>
       <c r="E21" s="2">
-        <v>0.59857022762298584</v>
+        <v>0.5968661904335022</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>0.56541162729263306</v>
       </c>
       <c r="C22" s="2">
-        <v>0.51707959175109863</v>
+        <v>0.51324582099914551</v>
       </c>
       <c r="D22" s="2">
         <v>0.67616474628448486</v>
       </c>
       <c r="E22" s="2">
-        <v>0.63746285438537598</v>
+        <v>0.63564461469650269</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>0.92950445413589478</v>
       </c>
       <c r="C23" s="2">
-        <v>0.91818708181381226</v>
+        <v>0.91500997543334961</v>
       </c>
       <c r="D23" s="2">
         <v>0.7726747989654541</v>
       </c>
       <c r="E23" s="2">
-        <v>0.73780030012130737</v>
+        <v>0.73540627956390381</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>0.75843614339828491</v>
       </c>
       <c r="C24" s="2">
-        <v>0.73171776533126831</v>
+        <v>0.72943079471588135</v>
       </c>
       <c r="D24" s="2">
         <v>0.72733175754547119</v>
       </c>
       <c r="E24" s="2">
-        <v>0.68936187028884888</v>
+        <v>0.68694722652435303</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>0.5745013952255249</v>
       </c>
       <c r="C25" s="2">
-        <v>0.50589442253112793</v>
+        <v>0.50349056720733643</v>
       </c>
       <c r="D25" s="2">
         <v>0.64191234111785889</v>
       </c>
       <c r="E25" s="2">
-        <v>0.59241414070129395</v>
+        <v>0.58851945400238037</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>0.60401636362075806</v>
       </c>
       <c r="C26" s="2">
-        <v>0.58137810230255127</v>
+        <v>0.57894814014434815</v>
       </c>
       <c r="D26" s="2">
         <v>0.54834198951721191</v>
       </c>
       <c r="E26" s="2">
-        <v>0.48578634858131409</v>
+        <v>0.48170274496078491</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>0.88865375518798828</v>
       </c>
       <c r="C27" s="2">
-        <v>0.88067877292633057</v>
+        <v>0.87862682342529297</v>
       </c>
       <c r="D27" s="2">
         <v>0.52398020029067993</v>
       </c>
       <c r="E27" s="2">
-        <v>0.4533897340297699</v>
+        <v>0.44959595799446106</v>
       </c>
     </row>
     <row r="28">
@@ -524,13 +524,13 @@
         <v>0.57974767684936524</v>
       </c>
       <c r="C28" s="2">
-        <v>0.53891509771347046</v>
+        <v>0.53765952587127686</v>
       </c>
       <c r="D28" s="2">
         <v>0.44605356454849243</v>
       </c>
       <c r="E28" s="2">
-        <v>0.36825156211853027</v>
+        <v>0.36453944444656372</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>0.093518778681755066</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.058317739516496658</v>
+        <v>-0.074076324701309204</v>
       </c>
       <c r="D29" s="2">
         <v>0.34521672129631042</v>
       </c>
       <c r="E29" s="2">
-        <v>0.25567460060119629</v>
+        <v>0.25244104862213135</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>-0.058712445199489594</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.2434559166431427</v>
+        <v>-0.24701061844825745</v>
       </c>
       <c r="D30" s="2">
         <v>0.27751493453979492</v>
       </c>
       <c r="E30" s="2">
-        <v>0.18439604341983795</v>
+        <v>0.18109007179737091</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>0.34615576267242432</v>
       </c>
       <c r="C31" s="2">
-        <v>0.22551010549068451</v>
+        <v>0.224284827709198</v>
       </c>
       <c r="D31" s="2">
         <v>0.21286661922931671</v>
       </c>
       <c r="E31" s="2">
-        <v>0.1182025820016861</v>
+        <v>0.11561451107263565</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>0.22816456854343414</v>
       </c>
       <c r="C32" s="2">
-        <v>0.15194332599639893</v>
+        <v>0.14950132369995117</v>
       </c>
       <c r="D32" s="2">
         <v>0.11221088469028473</v>
       </c>
       <c r="E32" s="2">
-        <v>0.0078709013760089874</v>
+        <v>0.0054649705998599529</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>-0.14909525215625763</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.28147482872009277</v>
+        <v>-0.27945488691329956</v>
       </c>
       <c r="D33" s="2">
         <v>0.029440870508551598</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.078322947025299072</v>
+        <v>-0.080354310572147369</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>-0.034814868122339249</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.13561248779296875</v>
+        <v>-0.13866820931434631</v>
       </c>
       <c r="D34" s="2">
         <v>0.03338068351149559</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.07264341413974762</v>
+        <v>-0.072911530733108521</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>0.022181600332260132</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.014363073743879795</v>
+        <v>-0.010331889614462852</v>
       </c>
       <c r="D35" s="2">
         <v>0.025342671200633049</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.086148738861083984</v>
+        <v>-0.085587672889232636</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>-0.017247855663299561</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.1123063713312149</v>
+        <v>-0.11271901428699493</v>
       </c>
       <c r="D36" s="2">
         <v>-0.023631807416677475</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.13486069440841675</v>
+        <v>-0.13385015726089478</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>-0.1651824563741684</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.23682953417301178</v>
+        <v>-0.23471401631832123</v>
       </c>
       <c r="D37" s="2">
         <v>-0.041741345077753067</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.16874536871910095</v>
+        <v>-0.16696529090404511</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>0.12897710502147675</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.0072019658982753754</v>
+        <v>-0.0070913052186369896</v>
       </c>
       <c r="D38" s="2">
         <v>-0.0066232206299901009</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.14634765684604645</v>
+        <v>-0.14395694434642792</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>-0.13105456531047821</v>
       </c>
       <c r="C39" s="2">
-        <v>-0.3650037944316864</v>
+        <v>-0.36109587550163269</v>
       </c>
       <c r="D39" s="2">
         <v>0.0067126024514436722</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.1402575820684433</v>
+        <v>-0.13715113699436188</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>-0.09461454302072525</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.21289747953414917</v>
+        <v>-0.21007753908634186</v>
       </c>
       <c r="D40" s="2">
         <v>0.03950674831867218</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.12753874063491821</v>
+        <v>-0.12437344342470169</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>0.065178714692592621</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.1530187726020813</v>
+        <v>-0.1485348641872406</v>
       </c>
       <c r="D41" s="2">
         <v>0.076159395277500153</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.097104594111442566</v>
+        <v>-0.093511059880256653</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>0.16696788370609283</v>
       </c>
       <c r="C42" s="2">
-        <v>-0.079895377159118652</v>
+        <v>-0.072379752993583679</v>
       </c>
       <c r="D42" s="2">
         <v>0.13985089957714081</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.03818829357624054</v>
+        <v>-0.034406431019306183</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>0.085207536816596985</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.080801911652088165</v>
+        <v>-0.077415958046913147</v>
       </c>
       <c r="D43" s="2">
         <v>0.17068886756896973</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.0044802767224609852</v>
+        <v>7.6741809607483447e-05</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>0.31732892990112305</v>
       </c>
       <c r="C44" s="2">
-        <v>0.10010658204555511</v>
+        <v>0.10466732829809189</v>
       </c>
       <c r="D44" s="2">
         <v>0.23953601717948914</v>
       </c>
       <c r="E44" s="2">
-        <v>0.071921356022357941</v>
+        <v>0.076936803758144379</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>0.3126259446144104</v>
       </c>
       <c r="C45" s="2">
-        <v>0.16160093247890473</v>
+        <v>0.16504243016242981</v>
       </c>
       <c r="D45" s="2">
         <v>0.32293534278869629</v>
       </c>
       <c r="E45" s="2">
-        <v>0.15509694814682007</v>
+        <v>0.1602524071931839</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>0.40804114937782288</v>
       </c>
       <c r="C46" s="2">
-        <v>0.29341715574264526</v>
+        <v>0.2972276508808136</v>
       </c>
       <c r="D46" s="2">
         <v>0.37612941861152649</v>
       </c>
       <c r="E46" s="2">
-        <v>0.21357093751430512</v>
+        <v>0.21929876506328583</v>
       </c>
     </row>
     <row r="47">
@@ -847,13 +847,13 @@
         <v>0.40651878714561463</v>
       </c>
       <c r="C47" s="2">
-        <v>0.29617017507553101</v>
+        <v>0.30325725674629211</v>
       </c>
       <c r="D47" s="2">
         <v>0.42497488856315613</v>
       </c>
       <c r="E47" s="2">
-        <v>0.27132821083068848</v>
+        <v>0.27690640091896057</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>0.48856979608535767</v>
       </c>
       <c r="C48" s="2">
-        <v>0.32261091470718384</v>
+        <v>0.33064469695091248</v>
       </c>
       <c r="D48" s="2">
         <v>0.47562271356582642</v>
       </c>
       <c r="E48" s="2">
-        <v>0.3105008602142334</v>
+        <v>0.31642413139343262</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>0.65597927570343018</v>
       </c>
       <c r="C49" s="2">
-        <v>0.53568285703659058</v>
+        <v>0.53976285457611084</v>
       </c>
       <c r="D49" s="2">
-        <v>0.49540942907333374</v>
+        <v>0.50628876686096192</v>
       </c>
       <c r="E49" s="2">
-        <v>0.33680015802383423</v>
+        <v>0.35052427649497986</v>
       </c>
     </row>
     <row r="50">
@@ -898,13 +898,13 @@
         <v>0.54392540454864502</v>
       </c>
       <c r="C50" s="2">
-        <v>0.37324714660644531</v>
+        <v>0.38288241624832153</v>
       </c>
       <c r="D50" s="2">
-        <v>0.52152138948440552</v>
+        <v>0.53772157430648804</v>
       </c>
       <c r="E50" s="2">
-        <v>0.36182859539985657</v>
+        <v>0.37182822823524475</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>0.60657721757888794</v>
       </c>
       <c r="C51" s="2">
-        <v>0.43992006778717041</v>
+        <v>0.44608905911445618</v>
       </c>
       <c r="D51" s="2">
-        <v>0.54043471813201904</v>
+        <v>0.54334825277328491</v>
       </c>
       <c r="E51" s="2">
-        <v>0.37323051691055298</v>
+        <v>0.36700797080993652</v>
       </c>
     </row>
     <row r="52">
@@ -932,14 +932,83 @@
         <v>0.54103797674179077</v>
       </c>
       <c r="C52" s="2">
-        <v>0.27175191044807434</v>
+        <v>0.27824360132217407</v>
       </c>
       <c r="D52" s="2">
-        <v>0.56721794605255127</v>
+        <v>0.5604519248008728</v>
       </c>
       <c r="E52" s="2">
-        <v>0.3886425793170929</v>
-      </c>
+        <v>0.37497681379318237</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.59332346916198731</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.41156840324401856</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.57072079181671143</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.38130995631217957</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.59552127122879028</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.35677799582481384</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.5565110445022583</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.35490113496780396</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.45868101716041565</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.25384539365768433</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.55902820825576782</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.34930488467216492</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_skewness.xlsx
+++ b/ECB_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -133,13 +133,13 @@
         <v>0.47890686988830566</v>
       </c>
       <c r="C5" s="2">
-        <v>0.3787035346031189</v>
+        <v>0.37072709202766418</v>
       </c>
       <c r="D5" s="2">
         <v>0.60682821273803711</v>
       </c>
       <c r="E5" s="2">
-        <v>0.56307190656661987</v>
+        <v>0.56078648567199707</v>
       </c>
     </row>
     <row r="6">
@@ -150,13 +150,13 @@
         <v>0.5860331654548645</v>
       </c>
       <c r="C6" s="2">
-        <v>0.53289341926574707</v>
+        <v>0.52606886625289917</v>
       </c>
       <c r="D6" s="2">
         <v>0.58285558223724365</v>
       </c>
       <c r="E6" s="2">
-        <v>0.52979743480682373</v>
+        <v>0.52861630916595459</v>
       </c>
     </row>
     <row r="7">
@@ -167,13 +167,13 @@
         <v>0.80940514802932739</v>
       </c>
       <c r="C7" s="2">
-        <v>0.74452793598175049</v>
+        <v>0.73801320791244507</v>
       </c>
       <c r="D7" s="2">
         <v>0.62259155511856079</v>
       </c>
       <c r="E7" s="2">
-        <v>0.566497802734375</v>
+        <v>0.56516802310943604</v>
       </c>
     </row>
     <row r="8">
@@ -184,13 +184,13 @@
         <v>0.43972894549369812</v>
       </c>
       <c r="C8" s="2">
-        <v>0.41637325286865234</v>
+        <v>0.41535386443138123</v>
       </c>
       <c r="D8" s="2">
         <v>0.59996819496154785</v>
       </c>
       <c r="E8" s="2">
-        <v>0.54199022054672241</v>
+        <v>0.54142719507217407</v>
       </c>
     </row>
     <row r="9">
@@ -201,13 +201,13 @@
         <v>0.72006678581237793</v>
       </c>
       <c r="C9" s="2">
-        <v>0.74286133050918579</v>
+        <v>0.75376933813095093</v>
       </c>
       <c r="D9" s="2">
         <v>0.6180424690246582</v>
       </c>
       <c r="E9" s="2">
-        <v>0.56467735767364502</v>
+        <v>0.56387245655059814</v>
       </c>
     </row>
     <row r="10">
@@ -218,13 +218,13 @@
         <v>0.46299266815185547</v>
       </c>
       <c r="C10" s="2">
-        <v>0.36342513561248779</v>
+        <v>0.36776545643806458</v>
       </c>
       <c r="D10" s="2">
-        <v>0.62297284603118897</v>
+        <v>0.62297284603118896</v>
       </c>
       <c r="E10" s="2">
-        <v>0.57295989990234375</v>
+        <v>0.57307511568069458</v>
       </c>
     </row>
     <row r="11">
@@ -235,13 +235,13 @@
         <v>0.86100733280181885</v>
       </c>
       <c r="C11" s="2">
-        <v>0.78670006990432739</v>
+        <v>0.78447830677032471</v>
       </c>
       <c r="D11" s="2">
         <v>0.63974106311798096</v>
       </c>
       <c r="E11" s="2">
-        <v>0.5960620641708374</v>
+        <v>0.59626471996307373</v>
       </c>
     </row>
     <row r="12">
@@ -252,13 +252,13 @@
         <v>0.44160452485084534</v>
       </c>
       <c r="C12" s="2">
-        <v>0.37043699622154236</v>
+        <v>0.37524142861366272</v>
       </c>
       <c r="D12" s="2">
         <v>0.57559704780578613</v>
       </c>
       <c r="E12" s="2">
-        <v>0.53451281785964966</v>
+        <v>0.53597396612167358</v>
       </c>
     </row>
     <row r="13">
@@ -269,13 +269,13 @@
         <v>0.76263660192489624</v>
       </c>
       <c r="C13" s="2">
-        <v>0.74617481231689453</v>
+        <v>0.74343442916870117</v>
       </c>
       <c r="D13" s="2">
         <v>0.54548430442810059</v>
       </c>
       <c r="E13" s="2">
-        <v>0.5137982964515686</v>
+        <v>0.515350341796875</v>
       </c>
     </row>
     <row r="14">
@@ -283,16 +283,16 @@
         <v>44197</v>
       </c>
       <c r="B14" s="2">
-        <v>0.5232803225517273</v>
+        <v>0.52328032255172729</v>
       </c>
       <c r="C14" s="2">
-        <v>0.45324599742889404</v>
+        <v>0.45355129241943359</v>
       </c>
       <c r="D14" s="2">
         <v>0.46770617365837097</v>
       </c>
       <c r="E14" s="2">
-        <v>0.42912170290946961</v>
+        <v>0.42931428551673889</v>
       </c>
     </row>
     <row r="15">
@@ -303,13 +303,13 @@
         <v>0.73694723844528198</v>
       </c>
       <c r="C15" s="2">
-        <v>0.74081331491470337</v>
+        <v>0.73477494716644287</v>
       </c>
       <c r="D15" s="2">
         <v>0.52602195739746094</v>
       </c>
       <c r="E15" s="2">
-        <v>0.49694010615348816</v>
+        <v>0.49583402276039124</v>
       </c>
     </row>
     <row r="16">
@@ -320,13 +320,13 @@
         <v>0.23210926353931427</v>
       </c>
       <c r="C16" s="2">
-        <v>0.1905844509601593</v>
+        <v>0.19539661705493927</v>
       </c>
       <c r="D16" s="2">
         <v>0.52616488933563232</v>
       </c>
       <c r="E16" s="2">
-        <v>0.49972608685493469</v>
+        <v>0.49776607751846313</v>
       </c>
     </row>
     <row r="17">
@@ -334,16 +334,16 @@
         <v>44287</v>
       </c>
       <c r="B17" s="2">
-        <v>0.16871424019336701</v>
+        <v>0.168714240193367</v>
       </c>
       <c r="C17" s="2">
-        <v>0.22994279861450195</v>
+        <v>0.22974132001399994</v>
       </c>
       <c r="D17" s="2">
         <v>0.56414449214935303</v>
       </c>
       <c r="E17" s="2">
-        <v>0.5379374623298645</v>
+        <v>0.53470790386199951</v>
       </c>
     </row>
     <row r="18">
@@ -354,13 +354,13 @@
         <v>0.020063307136297226</v>
       </c>
       <c r="C18" s="2">
-        <v>-0.019228357821702957</v>
+        <v>-0.020555285736918449</v>
       </c>
       <c r="D18" s="2">
         <v>0.54223060607910156</v>
       </c>
       <c r="E18" s="2">
-        <v>0.51205646991729736</v>
+        <v>0.5078432559967041</v>
       </c>
     </row>
     <row r="19">
@@ -371,13 +371,13 @@
         <v>0.98783475160598755</v>
       </c>
       <c r="C19" s="2">
-        <v>0.97379088401794434</v>
+        <v>0.96644324064254761</v>
       </c>
       <c r="D19" s="2">
         <v>0.58736658096313477</v>
       </c>
       <c r="E19" s="2">
-        <v>0.56336361169815064</v>
+        <v>0.55823147296905518</v>
       </c>
     </row>
     <row r="20">
@@ -388,13 +388,13 @@
         <v>0.86229372024536133</v>
       </c>
       <c r="C20" s="2">
-        <v>0.81177389621734619</v>
+        <v>0.80186676979064941</v>
       </c>
       <c r="D20" s="2">
         <v>0.58975428342819214</v>
       </c>
       <c r="E20" s="2">
-        <v>0.56209886074066162</v>
+        <v>0.55724692344665527</v>
       </c>
     </row>
     <row r="21">
@@ -405,13 +405,13 @@
         <v>0.7834208607673645</v>
       </c>
       <c r="C21" s="2">
-        <v>0.71433955430984497</v>
+        <v>0.70771795511245728</v>
       </c>
       <c r="D21" s="2">
         <v>0.62779784202575684</v>
       </c>
       <c r="E21" s="2">
-        <v>0.5968661904335022</v>
+        <v>0.59112966060638428</v>
       </c>
     </row>
     <row r="22">
@@ -422,13 +422,13 @@
         <v>0.56541162729263306</v>
       </c>
       <c r="C22" s="2">
-        <v>0.51324582099914551</v>
+        <v>0.50165247917175293</v>
       </c>
       <c r="D22" s="2">
         <v>0.67616474628448486</v>
       </c>
       <c r="E22" s="2">
-        <v>0.63564461469650269</v>
+        <v>0.62921631336212158</v>
       </c>
     </row>
     <row r="23">
@@ -439,13 +439,13 @@
         <v>0.92950445413589478</v>
       </c>
       <c r="C23" s="2">
-        <v>0.91500997543334961</v>
+        <v>0.90704536437988281</v>
       </c>
       <c r="D23" s="2">
         <v>0.7726747989654541</v>
       </c>
       <c r="E23" s="2">
-        <v>0.73540627956390381</v>
+        <v>0.7279888391494751</v>
       </c>
     </row>
     <row r="24">
@@ -456,13 +456,13 @@
         <v>0.75843614339828491</v>
       </c>
       <c r="C24" s="2">
-        <v>0.72943079471588135</v>
+        <v>0.72591394186019897</v>
       </c>
       <c r="D24" s="2">
         <v>0.72733175754547119</v>
       </c>
       <c r="E24" s="2">
-        <v>0.68694722652435303</v>
+        <v>0.6796460747718811</v>
       </c>
     </row>
     <row r="25">
@@ -473,13 +473,13 @@
         <v>0.5745013952255249</v>
       </c>
       <c r="C25" s="2">
-        <v>0.50349056720733643</v>
+        <v>0.50034099817276001</v>
       </c>
       <c r="D25" s="2">
         <v>0.64191234111785889</v>
       </c>
       <c r="E25" s="2">
-        <v>0.58851945400238037</v>
+        <v>0.58127343654632568</v>
       </c>
     </row>
     <row r="26">
@@ -490,13 +490,13 @@
         <v>0.60401636362075806</v>
       </c>
       <c r="C26" s="2">
-        <v>0.57894814014434815</v>
+        <v>0.57252109050750732</v>
       </c>
       <c r="D26" s="2">
         <v>0.54834198951721191</v>
       </c>
       <c r="E26" s="2">
-        <v>0.48170274496078491</v>
+        <v>0.47506833076477051</v>
       </c>
     </row>
     <row r="27">
@@ -507,13 +507,13 @@
         <v>0.88865375518798828</v>
       </c>
       <c r="C27" s="2">
-        <v>0.87862682342529297</v>
+        <v>0.86839777231216431</v>
       </c>
       <c r="D27" s="2">
         <v>0.52398020029067993</v>
       </c>
       <c r="E27" s="2">
-        <v>0.44959595799446106</v>
+        <v>0.44424682855606079</v>
       </c>
     </row>
     <row r="28">
@@ -521,16 +521,16 @@
         <v>44621</v>
       </c>
       <c r="B28" s="2">
-        <v>0.57974767684936524</v>
+        <v>0.57974767684936523</v>
       </c>
       <c r="C28" s="2">
-        <v>0.53765952587127686</v>
+        <v>0.53135812282562256</v>
       </c>
       <c r="D28" s="2">
         <v>0.44605356454849243</v>
       </c>
       <c r="E28" s="2">
-        <v>0.36453944444656372</v>
+        <v>0.35953664779663086</v>
       </c>
     </row>
     <row r="29">
@@ -541,13 +541,13 @@
         <v>0.093518778681755066</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.074076324701309204</v>
+        <v>-0.083486981689929962</v>
       </c>
       <c r="D29" s="2">
         <v>0.34521672129631042</v>
       </c>
       <c r="E29" s="2">
-        <v>0.25244104862213135</v>
+        <v>0.24805796146392822</v>
       </c>
     </row>
     <row r="30">
@@ -558,13 +558,13 @@
         <v>-0.058712445199489594</v>
       </c>
       <c r="C30" s="2">
-        <v>-0.24701061844825745</v>
+        <v>-0.24812793731689453</v>
       </c>
       <c r="D30" s="2">
         <v>0.27751493453979492</v>
       </c>
       <c r="E30" s="2">
-        <v>0.18109007179737091</v>
+        <v>0.17702849209308624</v>
       </c>
     </row>
     <row r="31">
@@ -575,13 +575,13 @@
         <v>0.34615576267242432</v>
       </c>
       <c r="C31" s="2">
-        <v>0.224284827709198</v>
+        <v>0.22425921261310577</v>
       </c>
       <c r="D31" s="2">
         <v>0.21286661922931671</v>
       </c>
       <c r="E31" s="2">
-        <v>0.11561451107263565</v>
+        <v>0.11276738345623016</v>
       </c>
     </row>
     <row r="32">
@@ -592,13 +592,13 @@
         <v>0.22816456854343414</v>
       </c>
       <c r="C32" s="2">
-        <v>0.14950132369995117</v>
+        <v>0.14465358853340149</v>
       </c>
       <c r="D32" s="2">
         <v>0.11221088469028473</v>
       </c>
       <c r="E32" s="2">
-        <v>0.0054649705998599529</v>
+        <v>0.0037512965500354767</v>
       </c>
     </row>
     <row r="33">
@@ -609,13 +609,13 @@
         <v>-0.14909525215625763</v>
       </c>
       <c r="C33" s="2">
-        <v>-0.27945488691329956</v>
+        <v>-0.27739426493644714</v>
       </c>
       <c r="D33" s="2">
         <v>0.029440870508551598</v>
       </c>
       <c r="E33" s="2">
-        <v>-0.080354310572147369</v>
+        <v>-0.080971375107765198</v>
       </c>
     </row>
     <row r="34">
@@ -626,13 +626,13 @@
         <v>-0.034814868122339249</v>
       </c>
       <c r="C34" s="2">
-        <v>-0.13866820931434631</v>
+        <v>-0.13892413675785065</v>
       </c>
       <c r="D34" s="2">
         <v>0.03338068351149559</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.072911530733108521</v>
+        <v>-0.071730323135852814</v>
       </c>
     </row>
     <row r="35">
@@ -643,13 +643,13 @@
         <v>0.022181600332260132</v>
       </c>
       <c r="C35" s="2">
-        <v>-0.010331889614462852</v>
+        <v>-0.0058289356529712677</v>
       </c>
       <c r="D35" s="2">
         <v>0.025342671200633049</v>
       </c>
       <c r="E35" s="2">
-        <v>-0.085587672889232636</v>
+        <v>-0.083100423216819763</v>
       </c>
     </row>
     <row r="36">
@@ -660,13 +660,13 @@
         <v>-0.017247855663299561</v>
       </c>
       <c r="C36" s="2">
-        <v>-0.11271901428699493</v>
+        <v>-0.11274699866771698</v>
       </c>
       <c r="D36" s="2">
         <v>-0.023631807416677475</v>
       </c>
       <c r="E36" s="2">
-        <v>-0.13385015726089478</v>
+        <v>-0.13116812705993652</v>
       </c>
     </row>
     <row r="37">
@@ -677,13 +677,13 @@
         <v>-0.1651824563741684</v>
       </c>
       <c r="C37" s="2">
-        <v>-0.23471401631832123</v>
+        <v>-0.2311459481716156</v>
       </c>
       <c r="D37" s="2">
         <v>-0.041741345077753067</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.16696529090404511</v>
+        <v>-0.16337338089942932</v>
       </c>
     </row>
     <row r="38">
@@ -694,13 +694,13 @@
         <v>0.12897710502147675</v>
       </c>
       <c r="C38" s="2">
-        <v>-0.0070913052186369896</v>
+        <v>-0.00031748833134770393</v>
       </c>
       <c r="D38" s="2">
         <v>-0.0066232206299901009</v>
       </c>
       <c r="E38" s="2">
-        <v>-0.14395694434642792</v>
+        <v>-0.13906648755073547</v>
       </c>
     </row>
     <row r="39">
@@ -711,13 +711,13 @@
         <v>-0.13105456531047821</v>
       </c>
       <c r="C39" s="2">
-        <v>-0.36109587550163269</v>
+        <v>-0.35045883059501648</v>
       </c>
       <c r="D39" s="2">
         <v>0.0067126024514436722</v>
       </c>
       <c r="E39" s="2">
-        <v>-0.13715113699436188</v>
+        <v>-0.13146647810935974</v>
       </c>
     </row>
     <row r="40">
@@ -728,13 +728,13 @@
         <v>-0.09461454302072525</v>
       </c>
       <c r="C40" s="2">
-        <v>-0.21007753908634186</v>
+        <v>-0.20835006237030029</v>
       </c>
       <c r="D40" s="2">
         <v>0.03950674831867218</v>
       </c>
       <c r="E40" s="2">
-        <v>-0.12437344342470169</v>
+        <v>-0.11808700114488602</v>
       </c>
     </row>
     <row r="41">
@@ -745,13 +745,13 @@
         <v>0.065178714692592621</v>
       </c>
       <c r="C41" s="2">
-        <v>-0.1485348641872406</v>
+        <v>-0.14519371092319489</v>
       </c>
       <c r="D41" s="2">
         <v>0.076159395277500153</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.093511059880256653</v>
+        <v>-0.086544610559940338</v>
       </c>
     </row>
     <row r="42">
@@ -762,13 +762,13 @@
         <v>0.16696788370609283</v>
       </c>
       <c r="C42" s="2">
-        <v>-0.072379752993583679</v>
+        <v>-0.058632321655750275</v>
       </c>
       <c r="D42" s="2">
         <v>0.13985089957714081</v>
       </c>
       <c r="E42" s="2">
-        <v>-0.034406431019306183</v>
+        <v>-0.027729466557502747</v>
       </c>
     </row>
     <row r="43">
@@ -779,13 +779,13 @@
         <v>0.085207536816596985</v>
       </c>
       <c r="C43" s="2">
-        <v>-0.077415958046913147</v>
+        <v>-0.070524029433727264</v>
       </c>
       <c r="D43" s="2">
         <v>0.17068886756896973</v>
       </c>
       <c r="E43" s="2">
-        <v>7.6741809607483447e-05</v>
+        <v>0.0063531943596899509</v>
       </c>
     </row>
     <row r="44">
@@ -796,13 +796,13 @@
         <v>0.31732892990112305</v>
       </c>
       <c r="C44" s="2">
-        <v>0.10466732829809189</v>
+        <v>0.11458641290664673</v>
       </c>
       <c r="D44" s="2">
         <v>0.23953601717948914</v>
       </c>
       <c r="E44" s="2">
-        <v>0.076936803758144379</v>
+        <v>0.082219205796718597</v>
       </c>
     </row>
     <row r="45">
@@ -813,13 +813,13 @@
         <v>0.3126259446144104</v>
       </c>
       <c r="C45" s="2">
-        <v>0.16504243016242981</v>
+        <v>0.17113450169563293</v>
       </c>
       <c r="D45" s="2">
         <v>0.32293534278869629</v>
       </c>
       <c r="E45" s="2">
-        <v>0.1602524071931839</v>
+        <v>0.16530118882656097</v>
       </c>
     </row>
     <row r="46">
@@ -830,13 +830,13 @@
         <v>0.40804114937782288</v>
       </c>
       <c r="C46" s="2">
-        <v>0.2972276508808136</v>
+        <v>0.29819032549858093</v>
       </c>
       <c r="D46" s="2">
         <v>0.37612941861152649</v>
       </c>
       <c r="E46" s="2">
-        <v>0.21929876506328583</v>
+        <v>0.22521060705184937</v>
       </c>
     </row>
     <row r="47">
@@ -844,16 +844,16 @@
         <v>45200</v>
       </c>
       <c r="B47" s="2">
-        <v>0.40651878714561463</v>
+        <v>0.40651878714561462</v>
       </c>
       <c r="C47" s="2">
-        <v>0.30325725674629211</v>
+        <v>0.30642646551132202</v>
       </c>
       <c r="D47" s="2">
         <v>0.42497488856315613</v>
       </c>
       <c r="E47" s="2">
-        <v>0.27690640091896057</v>
+        <v>0.2819570004940033</v>
       </c>
     </row>
     <row r="48">
@@ -864,13 +864,13 @@
         <v>0.48856979608535767</v>
       </c>
       <c r="C48" s="2">
-        <v>0.33064469695091248</v>
+        <v>0.33233526349067688</v>
       </c>
       <c r="D48" s="2">
         <v>0.47562271356582642</v>
       </c>
       <c r="E48" s="2">
-        <v>0.31642413139343262</v>
+        <v>0.32222369313240051</v>
       </c>
     </row>
     <row r="49">
@@ -881,13 +881,13 @@
         <v>0.65597927570343018</v>
       </c>
       <c r="C49" s="2">
-        <v>0.53976285457611084</v>
+        <v>0.53938776254653931</v>
       </c>
       <c r="D49" s="2">
-        <v>0.50628876686096192</v>
+        <v>0.50628876686096191</v>
       </c>
       <c r="E49" s="2">
-        <v>0.35052427649497986</v>
+        <v>0.35612225532531738</v>
       </c>
     </row>
     <row r="50">
@@ -898,13 +898,13 @@
         <v>0.54392540454864502</v>
       </c>
       <c r="C50" s="2">
-        <v>0.38288241624832153</v>
+        <v>0.39399105310440063</v>
       </c>
       <c r="D50" s="2">
         <v>0.53772157430648804</v>
       </c>
       <c r="E50" s="2">
-        <v>0.37182822823524475</v>
+        <v>0.37842926383018494</v>
       </c>
     </row>
     <row r="51">
@@ -915,13 +915,13 @@
         <v>0.60657721757888794</v>
       </c>
       <c r="C51" s="2">
-        <v>0.44608905911445618</v>
+        <v>0.45208531618118286</v>
       </c>
       <c r="D51" s="2">
         <v>0.54334825277328491</v>
       </c>
       <c r="E51" s="2">
-        <v>0.36700797080993652</v>
+        <v>0.37346422672271729</v>
       </c>
     </row>
     <row r="52">
@@ -932,13 +932,13 @@
         <v>0.54103797674179077</v>
       </c>
       <c r="C52" s="2">
-        <v>0.27824360132217407</v>
+        <v>0.2918761670589447</v>
       </c>
       <c r="D52" s="2">
-        <v>0.5604519248008728</v>
+        <v>0.58508741855621338</v>
       </c>
       <c r="E52" s="2">
-        <v>0.37497681379318237</v>
+        <v>0.40517356991767883</v>
       </c>
     </row>
     <row r="53">
@@ -946,16 +946,16 @@
         <v>45383</v>
       </c>
       <c r="B53" s="2">
-        <v>0.59332346916198731</v>
+        <v>0.5933234691619873</v>
       </c>
       <c r="C53" s="2">
-        <v>0.41156840324401856</v>
+        <v>0.41967332363128662</v>
       </c>
       <c r="D53" s="2">
-        <v>0.57072079181671143</v>
+        <v>0.64761435985565186</v>
       </c>
       <c r="E53" s="2">
-        <v>0.38130995631217957</v>
+        <v>0.46538490056991577</v>
       </c>
     </row>
     <row r="54">
@@ -966,13 +966,13 @@
         <v>0.59552127122879028</v>
       </c>
       <c r="C54" s="2">
-        <v>0.35677799582481384</v>
+        <v>0.37189778685569763</v>
       </c>
       <c r="D54" s="2">
-        <v>0.5565110445022583</v>
+        <v>0.68400126695632935</v>
       </c>
       <c r="E54" s="2">
-        <v>0.35490113496780396</v>
+        <v>0.50265538692474365</v>
       </c>
     </row>
     <row r="55">
@@ -983,32 +983,167 @@
         <v>0.45868101716041565</v>
       </c>
       <c r="C55" s="2">
-        <v>0.25384539365768433</v>
+        <v>0.25350496172904968</v>
       </c>
       <c r="D55" s="2">
-        <v>0.55902820825576782</v>
+        <v>0.70473229885101318</v>
       </c>
       <c r="E55" s="2">
-        <v>0.34930488467216492</v>
+        <v>0.52199298143386841</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
         <v>45474</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="2">
+        <v>0.78217107057571411</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.59181046485900879</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.73539263010025024</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.5561710000038147</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
         <v>45505</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="B57" s="2">
+        <v>1.0513128042221069</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.87423735857009888</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.75555700063705444</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.59127509593963623</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.98346120119094849</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.87482202053070068</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.79562336206436157</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.62913239002227783</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.73050457239151001</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.56802940368652344</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.80862295627593994</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.63972145318984985</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.88252043724060059</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.75968754291534424</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.83484983444213867</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.67448800802230835</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.72251707315444946</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.60781276226043701</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.84143465757369995</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.684822678565979</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.95392090082168579</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.76038902997970581</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.81145209074020386</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.65776348114013672</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.71251761913299561</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.4671996533870697</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.7827838659286499</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.62158703804016113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.69472277164459229</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.56640380620956421</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.7932397723197937</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.63229858875274658</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/ECB_skewness.xlsx
+++ b/ECB_skewness.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1145,6 +1145,15 @@
         <v>0.63229858875274658</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>